--- a/src/Middleware/tests/Orchestration.Tests/TemplateTests/TemplateExcel.xlsx
+++ b/src/Middleware/tests/Orchestration.Tests/TemplateTests/TemplateExcel.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\oc-marketplace.steve.davis\src\Middleware\tests\Orchestration.Tests\TemplateTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2146F07-12DB-4DB8-A464-8D36620B041D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE5A08-5C56-43EA-B09E-ECD76B98DBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" r:id="rId1"/>
-    <sheet name="PriceSchedules" sheetId="2" r:id="rId2"/>
-    <sheet name="Specs" sheetId="3" r:id="rId3"/>
-    <sheet name="SpecOptions" sheetId="4" r:id="rId4"/>
-    <sheet name="Images" sheetId="5" r:id="rId5"/>
-    <sheet name="Attachments" sheetId="6" r:id="rId6"/>
+    <sheet name="TemplateFlat" sheetId="7" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId2"/>
+    <sheet name="PriceSchedules" sheetId="2" r:id="rId3"/>
+    <sheet name="Specs" sheetId="3" r:id="rId4"/>
+    <sheet name="SpecOptions" sheetId="4" r:id="rId5"/>
+    <sheet name="Images" sheetId="5" r:id="rId6"/>
+    <sheet name="Attachments" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -220,13 +221,23 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ImageTitle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -246,6 +257,12 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -274,13 +291,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,14 +519,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634FD100-8E6D-4448-8FC5-D76376713B15}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="8">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1" xr:uid="{F2F9A4D6-0CB0-4B4A-A816-8EC4A8D02A4F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -617,14 +845,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -724,7 +954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -829,7 +1059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -923,14 +1153,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -988,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
